--- a/Base/Teams/Lions/Team Data.xlsx
+++ b/Base/Teams/Lions/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3</t>
-  </si>
-  <si>
-    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7</t>
-  </si>
-  <si>
-    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1</t>
-  </si>
-  <si>
-    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7</t>
+    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0</t>
+  </si>
+  <si>
+    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8</t>
+  </si>
+  <si>
+    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1</t>
+  </si>
+  <si>
+    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61</t>
-  </si>
-  <si>
-    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15</t>
-  </si>
-  <si>
-    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22</t>
-  </si>
-  <si>
-    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1</t>
-  </si>
-  <si>
-    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0</t>
+    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61</t>
+  </si>
+  <si>
+    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44</t>
+  </si>
+  <si>
+    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30</t>
+  </si>
+  <si>
+    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5</t>
+  </si>
+  <si>
+    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="M2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="N2">
         <v>34</v>
       </c>
       <c r="O2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>783</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>311</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -952,10 +952,10 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,28 +964,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="M2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="N2">
         <v>18</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>15</v>
       </c>
       <c r="Q2">
-        <v>821</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>310</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1239,16 +1239,16 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Lions/Team Data.xlsx
+++ b/Base/Teams/Lions/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0</t>
-  </si>
-  <si>
-    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8</t>
-  </si>
-  <si>
-    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1</t>
-  </si>
-  <si>
-    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3</t>
+    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8</t>
+  </si>
+  <si>
+    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2</t>
+  </si>
+  <si>
+    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1</t>
+  </si>
+  <si>
+    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -170,13 +170,13 @@
     <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30</t>
   </si>
   <si>
-    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5</t>
-  </si>
-  <si>
-    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0</t>
+    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11</t>
+  </si>
+  <si>
+    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>342</v>
       </c>
       <c r="N2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>854</v>
@@ -721,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -730,28 +730,28 @@
         <v>45</v>
       </c>
       <c r="F3">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="M3">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="N3">
         <v>38</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>867</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>318</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2">
         <v>895</v>
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -1005,28 +1005,28 @@
         <v>49</v>
       </c>
       <c r="F3">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="M3">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="N3">
         <v>25</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>888</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Lions/Team Data.xlsx
+++ b/Base/Teams/Lions/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8</t>
-  </si>
-  <si>
-    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2</t>
-  </si>
-  <si>
-    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1</t>
-  </si>
-  <si>
-    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4</t>
+    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3</t>
+  </si>
+  <si>
+    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2</t>
+  </si>
+  <si>
+    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12</t>
+  </si>
+  <si>
+    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61</t>
-  </si>
-  <si>
-    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44</t>
-  </si>
-  <si>
-    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30</t>
-  </si>
-  <si>
-    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11</t>
-  </si>
-  <si>
-    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4</t>
+    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61 65 65</t>
+  </si>
+  <si>
+    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44 17 31</t>
+  </si>
+  <si>
+    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30 17</t>
+  </si>
+  <si>
+    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52 40 55 38</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11 6 12 0</t>
+  </si>
+  <si>
+    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4 0 10 14</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,52 +665,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="M2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="N2">
         <v>36</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>854</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>335</v>
       </c>
       <c r="N3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -952,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,28 +964,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="M2">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="N2">
         <v>19</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2">
         <v>16</v>
       </c>
       <c r="Q2">
-        <v>895</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J3">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>328</v>
       </c>
       <c r="N3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1239,16 +1239,16 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Lions/Team Data.xlsx
+++ b/Base/Teams/Lions/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3</t>
-  </si>
-  <si>
-    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2</t>
-  </si>
-  <si>
-    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12</t>
-  </si>
-  <si>
-    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26</t>
+    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7</t>
+  </si>
+  <si>
+    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8</t>
+  </si>
+  <si>
+    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0</t>
+  </si>
+  <si>
+    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61 65 65</t>
-  </si>
-  <si>
-    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44 17 31</t>
-  </si>
-  <si>
-    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30 17</t>
-  </si>
-  <si>
-    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52 40 55 38</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11 6 12 0</t>
-  </si>
-  <si>
-    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4 0 10 14</t>
+    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61 65 65 69 66 68</t>
+  </si>
+  <si>
+    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44 17 31 24 23 32</t>
+  </si>
+  <si>
+    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30 17 25</t>
+  </si>
+  <si>
+    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52 40 55 38 52 57</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11 6 12 0 13 0</t>
+  </si>
+  <si>
+    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4 0 10 14 19 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,10 +704,10 @@
         <v>36</v>
       </c>
       <c r="O2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>920</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="M3">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="N3">
         <v>40</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>931</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -952,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>341</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2">
         <v>959</v>
@@ -996,37 +996,37 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="M3">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="N3">
         <v>27</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>956</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>27</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Lions/Team Data.xlsx
+++ b/Base/Teams/Lions/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7</t>
-  </si>
-  <si>
-    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8</t>
-  </si>
-  <si>
-    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0</t>
-  </si>
-  <si>
-    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4</t>
+    <t>2 -1 19 2 13 2 0 1 1 1 4 4 5 3 21 10 6 1 2 -2 14 14 2 3 2 1 7 4 4 7 4 1 5 0 4 1 25 5 8 1 3 4 4 0 2 1 6 0 27 2 2 0 2 1 3 -2 8 1 3 5 8 0 8 0 0 9 5 2 0 -2 2 3 5 1 0 -3 12 1 7 2 1 7 4 5 -1 0 10 7 1 7 2 3 8 -2 3 5 3 5 3 17 3 3 1 54 1 3 0 1 -2 -1 3 5 9 2 -1 1 5 2 9 5 2 1 6 19 5 5 0 0 3 3 3 8 7 -1 1 8 13 3 3 0 7 0 -2 2 7 3 2 3 3 2 -5 8 1 7 -5 5 -3 0 2 -2 1 11 -1 3 10 8 4 4 2 8 16 5 5 4 9 1 2 2 -4 2 5 2 2 17 6 -1 2 4 4 1 5 14 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 2 3 0 4 1 6 4 0 2 8 -1 1 4 0 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 2 0 4 15 4 2 1 3 5 2 5 3 3 2 3 0 1 3 2 5 1 3 5 0 3 4 11 2 1 3 3 4 3 6 2 7 3 7 8 3 -1 3 4 5 2 12 4 0 1 2 7 11 4 7 2 0 10 -1 4 11 6 7 14 4 9 4 -4 3 3 0 0 1 16 0 11 3 18 4 3 4 5 3 38 4 1 6 4 6 -1 5 4 6 3 2 13 8 5 2 10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 1 4 2 8 5 2 6 3 3 8 3 1 12 2 17 3 2 0 26 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 1 1 1 -2 5 4 2 2 -2 5 0 2 7 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7 -1 6 2 1 1 2 0 3 -3 3 26 31 5 0 -1 3 2 0 14 0 1</t>
+  </si>
+  <si>
+    <t>20 26 18 21 7 7 16 24 15 14 16 4 9 4 9 4 5 11 5 3 32 5 29 6 9 8 14 4 13 0 10 12 19 4 9 8 9 17 8 24 36 18 11 15 0 1 20 11 10 19 15 1 19 27 14 8 7 8 10 20 11 20 50 7 15 14 31 16 0 7 9 8 1 4 17 1 9 3 16 11 18 36 1 2 3 6 19 48 5 6 16 11 6 12 3 3 16 23 1 13 36 1 9 10 18 20 16 8 29 14 4 18 15 6 7 -2 13 22 29 11 25 6 11 10 16 -2 6 15 15 5 14 23 9 17 10 10 17 2 73 4 13 24 7 6 1 5 -1 13 0 9 6 4 10 5 12 5 20 8 11 15 9 16 14 9 12 9 19 28 2 12 11 8 13 9 11 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 7 6 21 9 11 5 1 4 19 5 5 35 8 14 18 3 3 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 21 19 5 4 15 14 14 3 25 49 5 22 15 12 7 9 24 9 23 6 5 14 22 17 5 13 25 21 5 8 16 15 1 4 16 17 8 23 10 10 10 15 8 16 -1 5 6 12 13 2 4 1 23 5 0 6 4 13 11 12 2 6 5 8 2 5 44 7 6 39 12 14 7 36 2 11 7 21 11 5 11 15 2 7 2 2 7 4 19 11 2 6 35 22 15 3 10 6 5 20 2 9 7 -1 9 23 43 3 15 20 38 2 7 26 6 31 18 21 1 -1 16 6 10 22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 8 46 9 5 6 4 5 11 4 10 8 20 1 6 15 7 2 5 3 5 7 7 5 24 16 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 18 7 5 8 -1 5 7 7 2 10 5 9 18 4 34 0 8 6 11 11 7 9 17 5 2 -3 7 5 19 0 5 5 9 4 1 30 8 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8 6 12 15 13 16 1 6 20 42 7 16 11 5 6 6 8 9 11 23 4 4</t>
+  </si>
+  <si>
+    <t>6 3 0 13 3 6 5 -1 16 3 0 8 8 1 -2 8 5 1 7 8 10 2 3 0 6 20 2 5 12 4 -2 7 4 5 5 2 8 11 4 5 13 75 18 4 11 3 5 3 9 4 4 4 7 1 3 14 3 3 -1 0 12 5 4 0 5 7 1 8 1 1 0 11 3 4 1 5 1 -6 15 4 5 13 -1 2 2 14 1 3 6 2 7 5 4 8 3 0 3 7 5 9 0 1 3 6 6 12 10 6 1 1 5 2 9 5 6 1 1 8 4 4 11 -1 -2 -2 2 1 6 5 0 -1 2 6 1 1 3 5 5 -2 0 2 6 8 9 1 4 1 2 2 0 0 0 1 2 1 2 3 1 2 5 13 2 9 -6 -3 3 8 1 2 10 2 1 -2 4 2 5 -1 3 0 -2 3 3 16 6 3 2 3 4 4 1 1 0 -4 0 1 4 8 6 12 5 5 2 3 2 3 14 13 5 5 9 11 5 0 7 1 5 13 14 4 5 12 4 2 0 1 4 8 70 5 9 4 4 13 3 14 18 1 1 5 4 0 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 5 3 2 6 1 2 1 4 2 1 9 4 3 0 5 4 7 3 0 4 21 9 5 3 4 3 0 6 2 3 2 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 4 8 -1 3 12 13 8 13 4 1 2 4 10 5 7 3 0 6 4 1 13 2 2 2 -1 3 9 -3 3 3 3 5 3 6 2 5 1 2 6 4 1 4 11 0 4 6 8 -1 9 3 8 9 7 2 4 4 1 4 1 2 -4 4 5 9 5 3 12 8 13 6 7 17 2 8 10 5 1 -2 1 5 4 5 33 3 3 4 -1 3 3 4 8 9 4 -1 1 2 8 4 2 3 4 6 4 14 12 9 2 5 3 1 9 1 2 -1 1 4 4 -4 5 2 1 6 4 1 5 5 20 1 2 5 2 4 1 4 7 4 19 5 4 1 0 0 1 5 -1 0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 3 6 7 1 3 9 4 1 4 8 6 5 4 3 8 3 1 -4 5 0 3 4 1 8 -1 3 5 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 5 7 11 3 10 5 1 1 8 6 10 4 3 19 1 12 3 14 4 -2 20 4 7 3 10 4 3 21 4 3 5 2 2 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0 3 -1 1 20 15 13 23 1 6 4 2 5 5 2 37 7 3 3 6 13 8 0 3 1 2 9 1 6 17 7 0 -2 0 6 3 4 1 30</t>
+  </si>
+  <si>
+    <t>13 12 10 19 8 11 12 22 19 3 0 18 22 3 5 2 7 18 13 16 1 27 15 4 22 11 4 10 7 17 8 8 11 30 14 25 41 9 -6 0 30 6 26 4 15 -3 13 18 11 11 15 10 9 21 14 6 15 12 11 10 4 12 16 18 19 8 19 25 10 2 20 15 7 4 12 -2 9 3 19 5 35 3 9 2 3 2 10 3 7 4 16 0 8 3 51 2 0 9 5 24 8 6 14 14 12 -2 7 16 7 9 19 11 27 11 17 4 13 13 4 9 5 17 8 8 5 28 7 12 6 9 8 16 16 24 5 5 8 4 -2 8 6 15 21 22 14 16 7 4 8 29 18 3 13 3 20 11 22 22 30 9 17 8 10 29 22 8 35 1 7 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 9 12 8 14 52 10 2 4 6 3 8 7 15 7 18 20 17 -3 11 12 10 -2 7 11 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 16 17 21 10 13 10 7 10 15 19 9 13 -1 6 4 21 6 4 11 7 9 16 1 14 5 4 4 15 56 10 3 5 12 14 11 4 8 7 3 14 14 -1 7 21 6 5 15 11 4 7 29 6 6 6 19 10 10 75 7 14 14 16 5 5 5 -1 20 14 7 24 2 12 3 8 33 33 47 -2 27 7 16 10 12 12 13 7 20 22 7 7 15 11 16 12 25 5 30 7 4 5 10 14 6 13 15 9 25 11 19 14 4 20 9 8 4 -3 14 10 40 15 38 15 7 14 30 13 8 5 23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 18 19 4 5 6 9 13 1 10 50 22 14 3 9 5 22 11 11 0 15 8 0 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 4 4 21 64 8 8 28 32 6 27 7 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 7 16 0 15 13 17 19 43 15 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4 12 7 4 8 9 -5 58 11 28 6 7 13 8 1 13 11 12 17 1 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61 65 65 69 66 68</t>
-  </si>
-  <si>
-    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44 17 31 24 23 32</t>
-  </si>
-  <si>
-    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30 17 25</t>
-  </si>
-  <si>
-    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52 40 55 38 52 57</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11 6 12 0 13 0</t>
-  </si>
-  <si>
-    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4 0 10 14 19 0</t>
+    <t>71 73 69 55 58 69 43 62 64 58 60 61 64 46 68 61 67 66 66 64 60 68 67 65 66 65 57 61 58 61 57 64 65 67 55 47 64 45 42 59 62 65 65 60 73 73 70 64 61 67 62 59 59 62 64 62 61 67 60 64 60 64 64 66 63 64 66 62 60 66 70 67 61 64 61 65 65 69 66 68 64 61</t>
+  </si>
+  <si>
+    <t>29 36 45 15 19 32 9 18 24 16 14 13 16 7 20 16 20 19 16 23 19 24 31 27 22 13 18 26 19 46 24 17 21 24 0 10 45 12 5 5 20 28 17 13 30 30 21 29 17 33 28 16 19 16 19 41 33 33 14 24 13 17 17 17 17 24 23 14 21 26 25 19 15 21 44 17 31 24 23 32 21 27</t>
+  </si>
+  <si>
+    <t>31 35 27 26 22 25 26 23 17 29 33 11 11 2 23 23 16 28 16 10 23 13 9 24 71 32 28 13 43 27 15 70 24 27 19 0 33 21 24 23 21 26 20 23 28 18 27 26 30 41 29 18 29 38 28 28 13 22 23 35 27 22 30 17 25 47 27</t>
+  </si>
+  <si>
+    <t>53 55 35 45 57 50 52 67 65 54 60 43 52 56 57 53 50 40 67 51 59 12 59 41 49 58 37 56 42 51 51 47 56 38 37 33 43 46 49 39 50 45 45 42 43 39 52 36 56 51 42 52 46 52 51 32 58 43 57 38 57 52 55 48 25 38 57 59 46 56 54 56 43 67 47 47 44 49 64 63 64 49 36 39 43 58 52 61 52 39 42 49 46 43 33 47 45 43 61 32 59 70 41 45 43 52 49 62 47 57 54 52 40 55 38 52 57 38 37 57</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 6 0 0 0 0 11 22 0 0 0 0 0 0 0 55 12 0 0 0 0 -3 0 0 0 0 8 0 0 0 7 14 0 0 0 0 5 0 0 0 2 0 0 6 5 -2 8 0 0 3 13 7 7 0 11 2 0 0 0 0 13 29 0 0 6 0 0 0 2 0 0 0 15 11 0 0 0 0 0 12 13 13 0 0 5 13 0 10 0 1 0 12 0 0 0 0 22 5 13 0 -1 16 2 5 2 11 6 12 0 13 0 3 0 30</t>
+  </si>
+  <si>
+    <t>0 0 0 16 0 0 0 0 0 19 0 0 0 0 0 7 0 0 -1 0 0 0 2 21 0 12 0 6 0 0 12 4 0 0 0 11 9 0 0 0 0 -1 0 74 4 10 12 0 0 0 0 10 0 11 0 0 7 0 22 14 0 0 11 13 14 0 11 0 48 5 0 0 18 0 0 0 17 0 9 0 0 0 0 0 0 0 -4 0 10 14 19 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,10 +704,10 @@
         <v>36</v>
       </c>
       <c r="O2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>920</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H3">
         <v>52</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="M3">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="N3">
         <v>40</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1006</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>341</v>
       </c>
       <c r="N2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2">
         <v>959</v>
@@ -996,37 +996,37 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="M3">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="N3">
         <v>27</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1001</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>59</v>
@@ -1251,7 +1251,7 @@
         <v>18</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
